--- a/Tests/Test1/test1_try1.xlsx
+++ b/Tests/Test1/test1_try1.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,34 +500,42 @@
           <t>Fuel Consumption [L]</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total cost [million euros]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.10034119729064</v>
+        <v>22.81503858616238</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64616362753669</v>
+        <v>0.841902613768345</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.681447595918186</v>
+        <v>4.241411363712163</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2353.384866027367</v>
+        <v>1359.906159369076</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.241411363712163</v>
       </c>
     </row>
     <row r="3">
@@ -536,25 +544,28 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>47.00793802713229</v>
+        <v>124.8737430109296</v>
       </c>
       <c r="D3" t="n">
-        <v>2.754742254785695</v>
+        <v>1.590070308573198</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.0516397882750752</v>
       </c>
       <c r="F3" t="n">
-        <v>8.902187605649523</v>
+        <v>22.73168499133904</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.2130356244328233</v>
       </c>
       <c r="H3" t="n">
-        <v>1637.174559280634</v>
+        <v>1829.253338666905</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>109669.7297998664</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.94472061577186</v>
       </c>
     </row>
     <row r="4">
@@ -563,25 +574,28 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>92.73536873208361</v>
+        <v>124.8737430109296</v>
       </c>
       <c r="D4" t="n">
-        <v>9.31531234855883</v>
+        <v>2.345473834154981</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.8514472713550031</v>
       </c>
       <c r="F4" t="n">
-        <v>18.18281634754447</v>
+        <v>22.85254955543212</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.524454449457882</v>
       </c>
       <c r="H4" t="n">
-        <v>1896.530738641431</v>
+        <v>974.9631666850408</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1815413.305207759</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.37700400489</v>
       </c>
     </row>
     <row r="5">
@@ -590,25 +604,28 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>196.9603215484458</v>
+        <v>166.0395290864372</v>
       </c>
       <c r="D5" t="n">
-        <v>12.60379543109348</v>
+        <v>3.259188792653</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.426055739135001</v>
       </c>
       <c r="F5" t="n">
-        <v>37.4694651476952</v>
+        <v>30.40858544238317</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5.978440774665466</v>
       </c>
       <c r="H5" t="n">
-        <v>2427.134314058816</v>
+        <v>830.9757504361579</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3086028.512761726</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36.38702621704864</v>
       </c>
     </row>
     <row r="6">
@@ -617,52 +634,58 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>266.2095082102505</v>
+        <v>245.5144520797147</v>
       </c>
       <c r="D6" t="n">
-        <v>12.15957480300997</v>
+        <v>5.534456434774254</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3788611856848336</v>
+        <v>1.800244104294758</v>
       </c>
       <c r="F6" t="n">
-        <v>49.86324344632667</v>
+        <v>45.07811440391253</v>
       </c>
       <c r="G6" t="n">
-        <v>1.557616987273275</v>
+        <v>7.708888465249212</v>
       </c>
       <c r="H6" t="n">
-        <v>2218.751662490002</v>
+        <v>919.0456940827099</v>
       </c>
       <c r="I6" t="n">
-        <v>801385.7083508279</v>
+        <v>3993218.073899011</v>
+      </c>
+      <c r="J6" t="n">
+        <v>52.78700286916174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n">
-        <v>25</v>
+        <v>25.00000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>266.2095082102504</v>
+        <v>196.3626725833253</v>
       </c>
       <c r="D7" t="n">
-        <v>12.15957480300997</v>
+        <v>5.97911258948881</v>
       </c>
       <c r="E7" t="n">
-        <v>1.20194299945318</v>
+        <v>2.862431386381745</v>
       </c>
       <c r="F7" t="n">
-        <v>49.86324344632666</v>
+        <v>36.30193907931677</v>
       </c>
       <c r="G7" t="n">
-        <v>4.950973637701676</v>
+        <v>12.71936639999171</v>
       </c>
       <c r="H7" t="n">
-        <v>1821.871325929585</v>
+        <v>814.1150265326098</v>
       </c>
       <c r="I7" t="n">
-        <v>2548077.010861306</v>
+        <v>6627655.161543771</v>
+      </c>
+      <c r="J7" t="n">
+        <v>49.02130547930847</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +694,28 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>266.2095082102501</v>
+        <v>145.2228730797425</v>
       </c>
       <c r="D8" t="n">
-        <v>12.15957480300997</v>
+        <v>5.513362074343055</v>
       </c>
       <c r="E8" t="n">
-        <v>2.025024813221524</v>
+        <v>3.938528732035406</v>
       </c>
       <c r="F8" t="n">
-        <v>49.86324344632662</v>
+        <v>27.02225508624854</v>
       </c>
       <c r="G8" t="n">
-        <v>8.348052901109904</v>
+        <v>17.96142768601252</v>
       </c>
       <c r="H8" t="n">
-        <v>1440.59251316343</v>
+        <v>771.4380083948878</v>
       </c>
       <c r="I8" t="n">
-        <v>4297010.85131144</v>
+        <v>9396572.558308</v>
+      </c>
+      <c r="J8" t="n">
+        <v>44.98368277226106</v>
       </c>
     </row>
     <row r="9">
@@ -698,25 +724,28 @@
         <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>305.5018165256781</v>
+        <v>124.8737430109295</v>
       </c>
       <c r="D9" t="n">
-        <v>11.94199963679894</v>
+        <v>5.245624764701546</v>
       </c>
       <c r="E9" t="n">
-        <v>2.630531460778843</v>
+        <v>4.850484686754641</v>
       </c>
       <c r="F9" t="n">
-        <v>56.90104691650989</v>
+        <v>23.31657370431955</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85390252141512</v>
+        <v>22.58487686546063</v>
       </c>
       <c r="H9" t="n">
-        <v>1331.856663792267</v>
+        <v>897.1677763752715</v>
       </c>
       <c r="I9" t="n">
-        <v>5587700.990932421</v>
+        <v>11852160.27313726</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45.90145056978018</v>
       </c>
     </row>
     <row r="10">
@@ -725,79 +754,88 @@
         <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>348.3493777571679</v>
+        <v>112.1663820926524</v>
       </c>
       <c r="D10" t="n">
-        <v>11.7065551477255</v>
+        <v>5.16067863259308</v>
       </c>
       <c r="E10" t="n">
-        <v>3.218168785473744</v>
+        <v>5.721668619884572</v>
       </c>
       <c r="F10" t="n">
-        <v>64.57593681992631</v>
+        <v>21.01565735789233</v>
       </c>
       <c r="G10" t="n">
-        <v>13.29190297018501</v>
+        <v>27.0854593214731</v>
       </c>
       <c r="H10" t="n">
-        <v>1010.41696677085</v>
+        <v>1138.283018822883</v>
       </c>
       <c r="I10" t="n">
-        <v>6843976.927048653</v>
+        <v>14248468.76478455</v>
+      </c>
+      <c r="J10" t="n">
+        <v>48.10111667936543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>45</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>382.099145623745</v>
+        <v>110.4854921002972</v>
       </c>
       <c r="D11" t="n">
-        <v>11.52117214745361</v>
+        <v>4.531554741047085</v>
       </c>
       <c r="E11" t="n">
-        <v>3.855867598970199</v>
+        <v>6.530922413224015</v>
       </c>
       <c r="F11" t="n">
-        <v>70.62123375586665</v>
+        <v>20.61243733662103</v>
       </c>
       <c r="G11" t="n">
-        <v>15.94458079596486</v>
+        <v>31.36333314015783</v>
       </c>
       <c r="H11" t="n">
-        <v>918.6037179105986</v>
+        <v>1492.229879033228</v>
       </c>
       <c r="I11" t="n">
-        <v>8211482.070230566</v>
+        <v>16532999.81459242</v>
+      </c>
+      <c r="J11" t="n">
+        <v>51.97577047677886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n">
-        <v>49.99999999999999</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>382.0991456237448</v>
+        <v>110.4854921002975</v>
       </c>
       <c r="D12" t="n">
-        <v>11.52117214745361</v>
+        <v>3.745695129011102</v>
       </c>
       <c r="E12" t="n">
-        <v>4.678949412738544</v>
+        <v>7.330729896303942</v>
       </c>
       <c r="F12" t="n">
-        <v>70.62123375586663</v>
+        <v>20.48669979869534</v>
       </c>
       <c r="G12" t="n">
-        <v>19.3914376248981</v>
+        <v>35.60788679877663</v>
       </c>
       <c r="H12" t="n">
-        <v>808.5871286019225</v>
+        <v>1809.393156580336</v>
       </c>
       <c r="I12" t="n">
-        <v>9990402.395936729</v>
+        <v>18800872.80782788</v>
+      </c>
+      <c r="J12" t="n">
+        <v>56.09458659747197</v>
       </c>
     </row>
     <row r="13">
@@ -806,52 +844,58 @@
         <v>55.00000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>386.4823173823801</v>
+        <v>110.4854921002968</v>
       </c>
       <c r="D13" t="n">
-        <v>11.49727578323657</v>
+        <v>2.950662777854134</v>
       </c>
       <c r="E13" t="n">
-        <v>5.478134862289852</v>
+        <v>8.13053737938387</v>
       </c>
       <c r="F13" t="n">
-        <v>71.40638125414625</v>
+        <v>20.35949462251008</v>
       </c>
       <c r="G13" t="n">
-        <v>22.74770883788215</v>
+        <v>39.85431498347995</v>
       </c>
       <c r="H13" t="n">
-        <v>678.9982689138466</v>
+        <v>1973.792381996627</v>
       </c>
       <c r="I13" t="n">
-        <v>11723390.31355918</v>
+        <v>21069875.03364435</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60.21380960599002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>60.00000000000001</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>393.7025236183414</v>
+        <v>110.4854921002974</v>
       </c>
       <c r="D14" t="n">
-        <v>11.45791744401004</v>
+        <v>2.178047432014136</v>
       </c>
       <c r="E14" t="n">
-        <v>6.261858336831669</v>
+        <v>8.930344862463796</v>
       </c>
       <c r="F14" t="n">
-        <v>72.69972104234306</v>
+        <v>20.23587616717579</v>
       </c>
       <c r="G14" t="n">
-        <v>26.06012394285604</v>
+        <v>44.10116450643129</v>
       </c>
       <c r="H14" t="n">
-        <v>650.7737607248532</v>
+        <v>2063.615448791686</v>
       </c>
       <c r="I14" t="n">
-        <v>13435547.55467291</v>
+        <v>23339131.07768254</v>
+      </c>
+      <c r="J14" t="n">
+        <v>64.33704067360708</v>
       </c>
     </row>
     <row r="15">
@@ -860,25 +904,28 @@
         <v>65</v>
       </c>
       <c r="C15" t="n">
-        <v>383.1533300395344</v>
+        <v>110.4854921002971</v>
       </c>
       <c r="D15" t="n">
-        <v>11.97534390289392</v>
+        <v>1.509247548263682</v>
       </c>
       <c r="E15" t="n">
-        <v>7.142446173904679</v>
+        <v>9.730152345543724</v>
       </c>
       <c r="F15" t="n">
-        <v>70.88365443157922</v>
+        <v>20.12886818577566</v>
       </c>
       <c r="G15" t="n">
-        <v>29.7910232562131</v>
+        <v>48.34693239327823</v>
       </c>
       <c r="H15" t="n">
-        <v>599.0909762670019</v>
+        <v>2055.201577448976</v>
       </c>
       <c r="I15" t="n">
-        <v>15364792.50112668</v>
+        <v>25607735.53370602</v>
+      </c>
+      <c r="J15" t="n">
+        <v>68.4758005790539</v>
       </c>
     </row>
     <row r="16">
@@ -887,52 +934,58 @@
         <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>399.98747097481</v>
+        <v>103.337085960524</v>
       </c>
       <c r="D16" t="n">
-        <v>12.78857976459123</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E16" t="n">
-        <v>7.873761850184269</v>
+        <v>10.57045118728864</v>
       </c>
       <c r="F16" t="n">
-        <v>74.04391753780038</v>
+        <v>18.8356764632301</v>
       </c>
       <c r="G16" t="n">
-        <v>32.90946346490914</v>
+        <v>52.74979706583644</v>
       </c>
       <c r="H16" t="n">
-        <v>547.3133804627561</v>
+        <v>2030.371689677463</v>
       </c>
       <c r="I16" t="n">
-        <v>16979039.97277023</v>
+        <v>27956341.1767851</v>
+      </c>
+      <c r="J16" t="n">
+        <v>71.58547352906655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n">
-        <v>75</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>399.987470974809</v>
+        <v>103.3370859605237</v>
       </c>
       <c r="D17" t="n">
-        <v>13.54338543566856</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E17" t="n">
-        <v>8.696843663952615</v>
+        <v>11.37025867036857</v>
       </c>
       <c r="F17" t="n">
-        <v>74.16468644517258</v>
+        <v>18.83567646323005</v>
       </c>
       <c r="G17" t="n">
-        <v>36.43604663825465</v>
+        <v>56.99111416216689</v>
       </c>
       <c r="H17" t="n">
-        <v>520.527418075583</v>
+        <v>2030.371689677459</v>
       </c>
       <c r="I17" t="n">
-        <v>18805988.21679704</v>
+        <v>30222264.43370226</v>
+      </c>
+      <c r="J17" t="n">
+        <v>75.82679062539694</v>
       </c>
     </row>
     <row r="18">
@@ -941,25 +994,28 @@
         <v>80</v>
       </c>
       <c r="C18" t="n">
-        <v>399.9874709748086</v>
+        <v>103.337085960524</v>
       </c>
       <c r="D18" t="n">
-        <v>14.26548519009837</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E18" t="n">
-        <v>9.51992547772096</v>
+        <v>12.17006615344849</v>
       </c>
       <c r="F18" t="n">
-        <v>74.28022240588129</v>
+        <v>18.8356764632301</v>
       </c>
       <c r="G18" t="n">
-        <v>39.9695440549831</v>
+        <v>61.23560076843004</v>
       </c>
       <c r="H18" t="n">
-        <v>569.1424845826292</v>
+        <v>2030.371689677463</v>
       </c>
       <c r="I18" t="n">
-        <v>20637101.66768104</v>
+        <v>32490097.03395238</v>
+      </c>
+      <c r="J18" t="n">
+        <v>80.07127723166015</v>
       </c>
     </row>
     <row r="19">
@@ -968,1605 +1024,2655 @@
         <v>85</v>
       </c>
       <c r="C19" t="n">
-        <v>399.98747097481</v>
+        <v>103.337085960524</v>
       </c>
       <c r="D19" t="n">
-        <v>15.21669906137828</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3430072914893</v>
+        <v>12.96987363652842</v>
       </c>
       <c r="F19" t="n">
-        <v>74.43241662528632</v>
+        <v>18.8356764632301</v>
       </c>
       <c r="G19" t="n">
-        <v>43.50935407452164</v>
+        <v>65.48199827737817</v>
       </c>
       <c r="H19" t="n">
-        <v>526.5121696868767</v>
+        <v>2030.371689677463</v>
       </c>
       <c r="I19" t="n">
-        <v>22472017.8913422</v>
+        <v>34759080.78039826</v>
+      </c>
+      <c r="J19" t="n">
+        <v>84.31767474060827</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>90</v>
+        <v>90.00000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>429.8467968537995</v>
+        <v>103.337085960524</v>
       </c>
       <c r="D20" t="n">
-        <v>16.1506450600599</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E20" t="n">
-        <v>11.00811780875977</v>
+        <v>13.76968111960835</v>
       </c>
       <c r="F20" t="n">
-        <v>79.9565266432935</v>
+        <v>18.8356764632301</v>
       </c>
       <c r="G20" t="n">
-        <v>46.38998739212163</v>
+        <v>69.7296065646335</v>
       </c>
       <c r="H20" t="n">
-        <v>464.9058802420373</v>
+        <v>2030.371689677464</v>
       </c>
       <c r="I20" t="n">
-        <v>23966937.77522034</v>
+        <v>37028793.91136656</v>
+      </c>
+      <c r="J20" t="n">
+        <v>88.5652830278636</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C21" t="n">
-        <v>23.85436319574685</v>
+        <v>103.3370859605243</v>
       </c>
       <c r="D21" t="n">
-        <v>1.82365802753669</v>
+        <v>1.468756189598695</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>14.56948860268828</v>
       </c>
       <c r="F21" t="n">
-        <v>4.585570659640304</v>
+        <v>18.83567646323015</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>73.97774173763332</v>
       </c>
       <c r="H21" t="n">
-        <v>1448.081645836872</v>
+        <v>2030.371689677469</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>39298824.44338576</v>
+      </c>
+      <c r="J21" t="n">
+        <v>92.81341820086348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n">
-        <v>5.000000000000001</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>40.08531588554538</v>
+        <v>103.3370859605211</v>
       </c>
       <c r="D22" t="n">
-        <v>2.735487041305035</v>
+        <v>1.468756189598704</v>
       </c>
       <c r="E22" t="n">
+        <v>15.36929608576821</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.8356764632296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>78.22590158314452</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2030.371689677437</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41568869.83836361</v>
+      </c>
+      <c r="J22" t="n">
+        <v>97.06157804637411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>7.653034786006974</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1124.834906683642</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="C23" t="n">
-        <v>57.04788207835144</v>
+        <v>36.46143444268829</v>
       </c>
       <c r="D23" t="n">
-        <v>3.64731605507338</v>
+        <v>1.417163435501983</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>10.852189342915</v>
+        <v>6.789804349364209</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>904.3030358042225</v>
+        <v>1555.629106091685</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.789804349364209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>74.52858440216025</v>
+        <v>45.5206507053454</v>
       </c>
       <c r="D24" t="n">
-        <v>4.559145068841724</v>
+        <v>2.621785912016298</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.7021155974232061</v>
       </c>
       <c r="F24" t="n">
-        <v>14.14460840340352</v>
+        <v>8.613202872884781</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.918775087606382</v>
       </c>
       <c r="H24" t="n">
-        <v>759.4823126090694</v>
+        <v>490.2239570688827</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1504521.523585818</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.53197796049116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>99.07545778178833</v>
+        <v>62.7226146194908</v>
       </c>
       <c r="D25" t="n">
-        <v>8.735115478441601</v>
+        <v>2.530467046036584</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.41011857452342</v>
       </c>
       <c r="F25" t="n">
-        <v>19.23120087727255</v>
+        <v>11.6949453588742</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>5.955635811455478</v>
       </c>
       <c r="H25" t="n">
-        <v>723.6626073254471</v>
+        <v>498.2942133342184</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3078051.0040611</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17.65058117032968</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n">
-        <v>24.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>224.5076456344146</v>
+        <v>62.72261461949074</v>
       </c>
       <c r="D26" t="n">
-        <v>15.07768838091954</v>
+        <v>3.803863639645272</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.209440417603348</v>
       </c>
       <c r="F26" t="n">
-        <v>42.82380635514176</v>
+        <v>11.89868881385158</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.526976574094171</v>
       </c>
       <c r="H26" t="n">
-        <v>1222.160205981709</v>
+        <v>388.0872361337578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4940549.592489255</v>
+      </c>
+      <c r="J26" t="n">
+        <v>21.42566538794575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n">
-        <v>29.99999999999999</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>231.751490639937</v>
+        <v>62.72261461949054</v>
       </c>
       <c r="D27" t="n">
-        <v>15.03631429520265</v>
+        <v>4.60258939806079</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8704549280514533</v>
+        <v>3.008762260683275</v>
       </c>
       <c r="F27" t="n">
-        <v>44.12107860242107</v>
+        <v>12.02648493519802</v>
       </c>
       <c r="G27" t="n">
-        <v>3.582965460663698</v>
+        <v>13.31265251623995</v>
       </c>
       <c r="H27" t="n">
-        <v>983.6737992038442</v>
+        <v>378.1067945894183</v>
       </c>
       <c r="I27" t="n">
-        <v>1843790.664959534</v>
+        <v>6932165.758933724</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25.33913745143797</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>231.7514906399371</v>
+        <v>62.72261461949097</v>
       </c>
       <c r="D28" t="n">
-        <v>15.03631429520265</v>
+        <v>4.888262244065434</v>
       </c>
       <c r="E28" t="n">
-        <v>1.782283941819798</v>
+        <v>3.808084103763202</v>
       </c>
       <c r="F28" t="n">
-        <v>44.12107860242111</v>
+        <v>12.07219259055884</v>
       </c>
       <c r="G28" t="n">
-        <v>7.336335012104908</v>
+        <v>17.22914391556214</v>
       </c>
       <c r="H28" t="n">
-        <v>757.6802422154897</v>
+        <v>403.5258438362226</v>
       </c>
       <c r="I28" t="n">
-        <v>3775279.907839175</v>
+        <v>9002586.417653145</v>
+      </c>
+      <c r="J28" t="n">
+        <v>29.30133650612098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>231.7514906399375</v>
+        <v>62.72261461949074</v>
       </c>
       <c r="D29" t="n">
-        <v>15.03631429520265</v>
+        <v>4.771219250214023</v>
       </c>
       <c r="E29" t="n">
-        <v>2.694112955588141</v>
+        <v>4.607405946843131</v>
       </c>
       <c r="F29" t="n">
-        <v>44.12107860242117</v>
+        <v>12.05346571154258</v>
       </c>
       <c r="G29" t="n">
-        <v>11.09174284097402</v>
+        <v>21.2313180742844</v>
       </c>
       <c r="H29" t="n">
-        <v>640.7183529607876</v>
+        <v>454.3773684491632</v>
       </c>
       <c r="I29" t="n">
-        <v>5707997.028687432</v>
+        <v>11124623.19649308</v>
+      </c>
+      <c r="J29" t="n">
+        <v>33.28478378582697</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n">
-        <v>45</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>231.7514906399369</v>
+        <v>62.72261461949063</v>
       </c>
       <c r="D30" t="n">
-        <v>15.03631429520265</v>
+        <v>4.540296131646548</v>
       </c>
       <c r="E30" t="n">
-        <v>3.605941969356488</v>
+        <v>5.406727789923057</v>
       </c>
       <c r="F30" t="n">
-        <v>44.12107860242106</v>
+        <v>12.01651801257176</v>
       </c>
       <c r="G30" t="n">
-        <v>14.87190902995627</v>
+        <v>25.31104379402732</v>
       </c>
       <c r="H30" t="n">
-        <v>434.5846670330583</v>
+        <v>544.5851812138608</v>
       </c>
       <c r="I30" t="n">
-        <v>7655628.824302639</v>
+        <v>13293377.7831768</v>
+      </c>
+      <c r="J30" t="n">
+        <v>37.32756180659908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C31" t="n">
-        <v>231.7514906399369</v>
+        <v>50.84894602231092</v>
       </c>
       <c r="D31" t="n">
-        <v>15.03631429520265</v>
+        <v>3.963920720763605</v>
       </c>
       <c r="E31" t="n">
-        <v>4.517770983124834</v>
+        <v>6.269076715579638</v>
       </c>
       <c r="F31" t="n">
-        <v>44.12107860242106</v>
+        <v>9.787037599338142</v>
       </c>
       <c r="G31" t="n">
-        <v>18.69449128763273</v>
+        <v>29.76058892359877</v>
       </c>
       <c r="H31" t="n">
-        <v>386.2173487122178</v>
+        <v>620.5988825303662</v>
       </c>
       <c r="I31" t="n">
-        <v>9628812.468528811</v>
+        <v>15662134.27364517</v>
+      </c>
+      <c r="J31" t="n">
+        <v>39.54762652293691</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n">
-        <v>54.99999999999999</v>
+        <v>44.99999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>231.751490639937</v>
+        <v>45.52065070534513</v>
       </c>
       <c r="D32" t="n">
-        <v>15.03631429520265</v>
+        <v>3.591401640851048</v>
       </c>
       <c r="E32" t="n">
-        <v>5.429599996893176</v>
+        <v>7.096690342062629</v>
       </c>
       <c r="F32" t="n">
-        <v>44.12107860242109</v>
+        <v>8.768341389498291</v>
       </c>
       <c r="G32" t="n">
-        <v>22.55573305989223</v>
+        <v>34.08525082894059</v>
       </c>
       <c r="H32" t="n">
-        <v>359.0362187943218</v>
+        <v>713.195500314575</v>
       </c>
       <c r="I32" t="n">
-        <v>11625284.97696164</v>
+        <v>17968214.83355603</v>
+      </c>
+      <c r="J32" t="n">
+        <v>42.85359221843888</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n">
-        <v>59.99999999999999</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>231.7514906399374</v>
+        <v>45.52065070534589</v>
       </c>
       <c r="D33" t="n">
-        <v>15.03631429520265</v>
+        <v>3.56449999443248</v>
       </c>
       <c r="E33" t="n">
-        <v>6.341429010661521</v>
+        <v>7.89601218514255</v>
       </c>
       <c r="F33" t="n">
-        <v>44.12107860242115</v>
+        <v>8.764037126071459</v>
       </c>
       <c r="G33" t="n">
-        <v>26.44874452789626</v>
+        <v>38.3014056538123</v>
       </c>
       <c r="H33" t="n">
-        <v>320.4937215564506</v>
+        <v>887.2668646581917</v>
       </c>
       <c r="I33" t="n">
-        <v>13640895.85632491</v>
+        <v>20219155.62814866</v>
+      </c>
+      <c r="J33" t="n">
+        <v>47.06544277988375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n">
-        <v>64.99999999999999</v>
+        <v>54.99999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>231.7514906399374</v>
+        <v>45.52065070534649</v>
       </c>
       <c r="D34" t="n">
-        <v>15.2781153128939</v>
+        <v>3.16088858771935</v>
       </c>
       <c r="E34" t="n">
-        <v>7.253258024429866</v>
+        <v>8.695334028222474</v>
       </c>
       <c r="F34" t="n">
-        <v>44.15976676525176</v>
+        <v>8.699459300997466</v>
       </c>
       <c r="G34" t="n">
-        <v>30.36902759922096</v>
+        <v>42.5360091289953</v>
       </c>
       <c r="H34" t="n">
-        <v>361.1137616119204</v>
+        <v>1075.259941354425</v>
       </c>
       <c r="I34" t="n">
-        <v>15672935.41238737</v>
+        <v>22481210.06750712</v>
+      </c>
+      <c r="J34" t="n">
+        <v>51.23546842999277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C35" t="n">
-        <v>231.7514906399362</v>
+        <v>45.52065070534619</v>
       </c>
       <c r="D35" t="n">
-        <v>17.47075508599348</v>
+        <v>2.621785912016292</v>
       </c>
       <c r="E35" t="n">
-        <v>8.165087038198214</v>
+        <v>9.494655871302406</v>
       </c>
       <c r="F35" t="n">
-        <v>44.51058912894747</v>
+        <v>8.613202872884919</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31074384604102</v>
+        <v>46.77538857778377</v>
       </c>
       <c r="H35" t="n">
-        <v>336.4977934759133</v>
+        <v>1297.426228959668</v>
       </c>
       <c r="I35" t="n">
-        <v>17717886.51995307</v>
+        <v>24746141.599399</v>
+      </c>
+      <c r="J35" t="n">
+        <v>55.38859145066869</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n">
-        <v>75</v>
+        <v>64.99999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>231.7514906399367</v>
+        <v>45.52065070534558</v>
       </c>
       <c r="D36" t="n">
-        <v>18.05458295097649</v>
+        <v>2.621785912016297</v>
       </c>
       <c r="E36" t="n">
-        <v>9.076916051966558</v>
+        <v>10.29397771438234</v>
       </c>
       <c r="F36" t="n">
-        <v>44.60400158734484</v>
+        <v>8.613202872884813</v>
       </c>
       <c r="G36" t="n">
-        <v>38.32930735562075</v>
+        <v>51.00943752316934</v>
       </c>
       <c r="H36" t="n">
-        <v>318.715633177377</v>
+        <v>1423.098644436653</v>
       </c>
       <c r="I36" t="n">
-        <v>19809131.15930169</v>
+        <v>27007861.98466261</v>
+      </c>
+      <c r="J36" t="n">
+        <v>59.62264039605415</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C37" t="n">
-        <v>231.7514906399365</v>
+        <v>45.52065070534558</v>
       </c>
       <c r="D37" t="n">
-        <v>18.85496481411523</v>
+        <v>2.621785912016295</v>
       </c>
       <c r="E37" t="n">
-        <v>9.988745065734904</v>
+        <v>11.09329955746226</v>
       </c>
       <c r="F37" t="n">
-        <v>44.73206268544701</v>
+        <v>8.613202872884813</v>
       </c>
       <c r="G37" t="n">
-        <v>42.38257381946718</v>
+        <v>55.24742388494884</v>
       </c>
       <c r="H37" t="n">
-        <v>303.9193599880205</v>
+        <v>1497.217666493692</v>
       </c>
       <c r="I37" t="n">
-        <v>21921281.19278689</v>
+        <v>29271954.30751294</v>
+      </c>
+      <c r="J37" t="n">
+        <v>63.86062675783365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n">
-        <v>85</v>
+        <v>74.99999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>231.751490639937</v>
+        <v>45.52065070534589</v>
       </c>
       <c r="D38" t="n">
-        <v>19.96573349070039</v>
+        <v>2.621785912016294</v>
       </c>
       <c r="E38" t="n">
-        <v>10.90057407950325</v>
+        <v>11.89262140054219</v>
       </c>
       <c r="F38" t="n">
-        <v>44.90978567370073</v>
+        <v>8.613202872884868</v>
       </c>
       <c r="G38" t="n">
-        <v>46.45264580711385</v>
+        <v>59.48903069645799</v>
       </c>
       <c r="H38" t="n">
-        <v>291.1205366190353</v>
+        <v>1566.821624904713</v>
       </c>
       <c r="I38" t="n">
-        <v>24043555.0357903</v>
+        <v>31538227.62417631</v>
+      </c>
+      <c r="J38" t="n">
+        <v>68.10223356934286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>231.7514906399367</v>
+        <v>45.52065070534558</v>
       </c>
       <c r="D39" t="n">
-        <v>21.26732687095377</v>
+        <v>2.621785912016295</v>
       </c>
       <c r="E39" t="n">
-        <v>11.81240309327159</v>
+        <v>12.69194324362212</v>
       </c>
       <c r="F39" t="n">
-        <v>45.11804061454121</v>
+        <v>8.613202872884813</v>
       </c>
       <c r="G39" t="n">
-        <v>50.55951449600366</v>
+        <v>63.73306939777024</v>
       </c>
       <c r="H39" t="n">
-        <v>281.0941593956167</v>
+        <v>1596.652651276364</v>
       </c>
       <c r="I39" t="n">
-        <v>26187995.56628959</v>
+        <v>33805965.93469697</v>
+      </c>
+      <c r="J39" t="n">
+        <v>72.34627227065505</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C40" t="n">
-        <v>31.16468175359951</v>
+        <v>45.52065070534498</v>
       </c>
       <c r="D40" t="n">
-        <v>2.028869712549154</v>
+        <v>2.621785912016304</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>13.49126508670206</v>
       </c>
       <c r="F40" t="n">
-        <v>5.934261869655776</v>
+        <v>8.613202872884704</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>67.97837311548362</v>
       </c>
       <c r="H40" t="n">
-        <v>1847.096568570794</v>
+        <v>1596.652651276373</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>36074466.3032906</v>
+      </c>
+      <c r="J40" t="n">
+        <v>76.59157598836832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n">
-        <v>5</v>
+        <v>89.99999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>48.16948638972873</v>
+        <v>45.52065070534709</v>
       </c>
       <c r="D41" t="n">
-        <v>4.226709985542999</v>
+        <v>2.621785912016283</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14.29058692978196</v>
       </c>
       <c r="F41" t="n">
-        <v>9.346781147838051</v>
+        <v>8.613202872885084</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>72.22392898732113</v>
       </c>
       <c r="H41" t="n">
-        <v>1441.796087409186</v>
+        <v>1596.652651276376</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>38343118.57195901</v>
+      </c>
+      <c r="J41" t="n">
+        <v>80.83713186020621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C42" t="n">
-        <v>66.2705119941028</v>
+        <v>45.52065070534589</v>
       </c>
       <c r="D42" t="n">
-        <v>6.677958274833311</v>
+        <v>2.621785912016299</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15.08990877286191</v>
       </c>
       <c r="F42" t="n">
-        <v>12.99716548291184</v>
+        <v>8.613202872884868</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>76.46950321970469</v>
       </c>
       <c r="H42" t="n">
-        <v>1216.35475358417</v>
+        <v>1596.652651276386</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40611781.90119732</v>
+      </c>
+      <c r="J42" t="n">
+        <v>85.08270609258956</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>84.37153759847686</v>
+        <v>45.52065070534615</v>
       </c>
       <c r="D43" t="n">
-        <v>9.746012673586533</v>
+        <v>2.621785912016295</v>
       </c>
       <c r="E43" t="n">
+        <v>15.88923061594183</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.613202872884914</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80.71508289433055</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1596.652651276382</v>
+      </c>
+      <c r="I43" t="n">
+        <v>42880448.50889486</v>
+      </c>
+      <c r="J43" t="n">
+        <v>89.32828576721546</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>16.74623879549968</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1040.210773477242</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n">
-        <v>20</v>
-      </c>
       <c r="C44" t="n">
-        <v>102.4725632028509</v>
+        <v>15.49672338445824</v>
       </c>
       <c r="D44" t="n">
-        <v>13.70170548261143</v>
+        <v>1.991091837172121</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>20.63733425373099</v>
+        <v>3.107984903150023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>926.6162133557978</v>
+        <v>815.3047972254768</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.107984903150023</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n">
-        <v>25.00000000000001</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>126.0264894489923</v>
+        <v>89.06543554470815</v>
       </c>
       <c r="D45" t="n">
-        <v>19.76844650362159</v>
+        <v>1.590646616848272</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>25.84771954139807</v>
+        <v>16.28628185674319</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>870.0085675857414</v>
+        <v>980.3263952601385</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>16.28628185674319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>172.1355681075416</v>
+        <v>170.92822777068</v>
       </c>
       <c r="D46" t="n">
-        <v>18.94239828985324</v>
+        <v>2.966068913374095</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.2982735979028868</v>
       </c>
       <c r="F46" t="n">
-        <v>34.01518598573401</v>
+        <v>31.24165202486225</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.237752505814337</v>
       </c>
       <c r="H46" t="n">
-        <v>891.8133028542214</v>
+        <v>904.6978867138178</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>637824.3054654245</v>
+      </c>
+      <c r="J46" t="n">
+        <v>32.47940453067659</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>220.7808262252311</v>
+        <v>196.4467744298907</v>
       </c>
       <c r="D47" t="n">
-        <v>16.62966225793264</v>
+        <v>4.413076463471113</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.9284126353560848</v>
       </c>
       <c r="F47" t="n">
-        <v>42.40129468181082</v>
+        <v>36.0665116315357</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3.947058011007734</v>
       </c>
       <c r="H47" t="n">
-        <v>889.3111240523328</v>
+        <v>792.1457653029541</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2042174.957707279</v>
+      </c>
+      <c r="J47" t="n">
+        <v>40.01356964254344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>289.36811596889</v>
+        <v>204.3693190464155</v>
       </c>
       <c r="D48" t="n">
-        <v>9.885843286318288</v>
+        <v>5.299734675418694</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1.659031225879524</v>
       </c>
       <c r="F48" t="n">
-        <v>53.66799580021113</v>
+        <v>37.63443497642177</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>7.284569846947657</v>
       </c>
       <c r="H48" t="n">
-        <v>898.5460115217925</v>
+        <v>792.0260087636203</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3788645.24784334</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44.91900482336943</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
-        <v>362.9961508902848</v>
+        <v>207.4892869480508</v>
       </c>
       <c r="D49" t="n">
-        <v>9.667211436946271</v>
+        <v>6.255787267021699</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>2.416677511036645</v>
       </c>
       <c r="F49" t="n">
-        <v>66.88606099016268</v>
+        <v>38.34899761337262</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>11.0048313262868</v>
       </c>
       <c r="H49" t="n">
-        <v>898.6297647006334</v>
+        <v>835.8023672739637</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>5755918.566063143</v>
+      </c>
+      <c r="J49" t="n">
+        <v>49.35382893965942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>449.5480292332698</v>
+        <v>200.8609906091559</v>
       </c>
       <c r="D50" t="n">
-        <v>10.4733875242571</v>
+        <v>6.327425643118991</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3.228329589470686</v>
       </c>
       <c r="F50" t="n">
-        <v>82.59438726586971</v>
+        <v>37.1673664125471</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>15.13172654947266</v>
       </c>
       <c r="H50" t="n">
-        <v>936.7002320618824</v>
+        <v>950.0959106303799</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>7948631.80469292</v>
+      </c>
+      <c r="J50" t="n">
+        <v>52.29909296201976</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n">
-        <v>54.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>538.7214667427338</v>
+        <v>200.502899097789</v>
       </c>
       <c r="D51" t="n">
-        <v>11.43634370016437</v>
+        <v>6.035615240039061</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>4.005274860120273</v>
       </c>
       <c r="F51" t="n">
-        <v>98.79967900571837</v>
+        <v>37.05622027600828</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>19.19074400703318</v>
       </c>
       <c r="H51" t="n">
-        <v>831.4690798762045</v>
+        <v>1115.375545536463</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>10112999.45238616</v>
+      </c>
+      <c r="J51" t="n">
+        <v>56.24696428304146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n">
-        <v>59.99999999999999</v>
+        <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>587.866432993917</v>
+        <v>197.2391031099021</v>
       </c>
       <c r="D52" t="n">
-        <v>15.72230389939985</v>
+        <v>5.320876836959131</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3732240202352071</v>
+        <v>4.798571255954333</v>
       </c>
       <c r="F52" t="n">
-        <v>108.331526562809</v>
+        <v>36.35437885369585</v>
       </c>
       <c r="G52" t="n">
-        <v>1.540400249779745</v>
+        <v>23.36909852146737</v>
       </c>
       <c r="H52" t="n">
-        <v>888.7407910916628</v>
+        <v>1307.864054275448</v>
       </c>
       <c r="I52" t="n">
-        <v>793051.7094208559</v>
+        <v>12343346.84812938</v>
+      </c>
+      <c r="J52" t="n">
+        <v>59.72347737516322</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n">
-        <v>65.00000000000001</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>587.8664329939165</v>
+        <v>197.2391031099019</v>
       </c>
       <c r="D53" t="n">
-        <v>15.72230389939985</v>
+        <v>4.607002433879205</v>
       </c>
       <c r="E53" t="n">
-        <v>1.199272234003557</v>
+        <v>5.573501659034263</v>
       </c>
       <c r="F53" t="n">
-        <v>108.331526562809</v>
+        <v>36.24015894920301</v>
       </c>
       <c r="G53" t="n">
-        <v>4.974307171949245</v>
+        <v>27.48064715582461</v>
       </c>
       <c r="H53" t="n">
-        <v>793.438615248725</v>
+        <v>1429.158920418458</v>
       </c>
       <c r="I53" t="n">
-        <v>2563098.693703079</v>
+        <v>14540088.04843617</v>
+      </c>
+      <c r="J53" t="n">
+        <v>63.72080610502762</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n">
-        <v>70</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>587.866432993917</v>
+        <v>189.2940140810614</v>
       </c>
       <c r="D54" t="n">
-        <v>15.72230389939985</v>
+        <v>3.878967867412097</v>
       </c>
       <c r="E54" t="n">
-        <v>2.025320447771898</v>
+        <v>6.393501007375838</v>
       </c>
       <c r="F54" t="n">
-        <v>108.331526562809</v>
+        <v>34.69355739337698</v>
       </c>
       <c r="G54" t="n">
-        <v>8.428468391420036</v>
+        <v>31.77716679674327</v>
       </c>
       <c r="H54" t="n">
-        <v>730.4684733328928</v>
+        <v>1477.867654512821</v>
       </c>
       <c r="I54" t="n">
-        <v>4345347.061901746</v>
+        <v>16831967.58573359</v>
+      </c>
+      <c r="J54" t="n">
+        <v>66.47072419012025</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n">
-        <v>75</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>588.4283540461806</v>
+        <v>176.2015636385443</v>
       </c>
       <c r="D55" t="n">
-        <v>16.28821730879382</v>
+        <v>3.185301627719353</v>
       </c>
       <c r="E55" t="n">
-        <v>2.846230654892383</v>
+        <v>7.242715837849502</v>
       </c>
       <c r="F55" t="n">
-        <v>108.5232184977195</v>
+        <v>32.22592971537306</v>
       </c>
       <c r="G55" t="n">
-        <v>11.86917945469125</v>
+        <v>36.19259770581908</v>
       </c>
       <c r="H55" t="n">
-        <v>661.3857828705192</v>
+        <v>1464.718551402772</v>
       </c>
       <c r="I55" t="n">
-        <v>6121350.037202303</v>
+        <v>19184920.60428276</v>
+      </c>
+      <c r="J55" t="n">
+        <v>68.41852742119214</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>588.5653956937956</v>
+        <v>169.3474373603802</v>
       </c>
       <c r="D56" t="n">
-        <v>16.4262326148917</v>
+        <v>2.914342681857003</v>
       </c>
       <c r="E56" t="n">
-        <v>3.671025808477906</v>
+        <v>8.056559073782626</v>
       </c>
       <c r="F56" t="n">
-        <v>108.5699684432659</v>
+        <v>30.94883355396555</v>
       </c>
       <c r="G56" t="n">
-        <v>15.36186812246268</v>
+        <v>40.45898868503729</v>
       </c>
       <c r="H56" t="n">
-        <v>650.1196545781398</v>
+        <v>1456.315476128814</v>
       </c>
       <c r="I56" t="n">
-        <v>7927260.624925266</v>
+        <v>21460875.44624561</v>
+      </c>
+      <c r="J56" t="n">
+        <v>71.40782223900284</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C57" t="n">
-        <v>588.5653956937965</v>
+        <v>167.9666070662229</v>
       </c>
       <c r="D57" t="n">
-        <v>19.27238350781338</v>
+        <v>2.871997042188932</v>
       </c>
       <c r="E57" t="n">
-        <v>4.497074022246247</v>
+        <v>8.839395154771784</v>
       </c>
       <c r="F57" t="n">
-        <v>109.0253525861335</v>
+        <v>30.69350879867035</v>
       </c>
       <c r="G57" t="n">
-        <v>18.85072400750197</v>
+        <v>44.60009074408181</v>
       </c>
       <c r="H57" t="n">
-        <v>554.3937393420424</v>
+        <v>1454.631895009413</v>
       </c>
       <c r="I57" t="n">
-        <v>9730409.394068807</v>
+        <v>23672562.44049322</v>
+      </c>
+      <c r="J57" t="n">
+        <v>75.29359954275216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n">
-        <v>89.99999999999999</v>
+        <v>70</v>
       </c>
       <c r="C58" t="n">
-        <v>588.5653956937973</v>
+        <v>159.8123878935494</v>
       </c>
       <c r="D58" t="n">
-        <v>19.01335330529286</v>
+        <v>2.634075305005834</v>
       </c>
       <c r="E58" t="n">
-        <v>5.323122236014584</v>
+        <v>9.661367463569295</v>
       </c>
       <c r="F58" t="n">
-        <v>108.9839077537304</v>
+        <v>29.18768186963982</v>
       </c>
       <c r="G58" t="n">
-        <v>22.41945459880705</v>
+        <v>48.90405490858801</v>
       </c>
       <c r="H58" t="n">
-        <v>503.1366437583624</v>
+        <v>1444.04463272143</v>
       </c>
       <c r="I58" t="n">
-        <v>11581675.45614356</v>
+        <v>25968213.51231713</v>
+      </c>
+      <c r="J58" t="n">
+        <v>78.09173677822784</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>31.65750889301022</v>
+        <v>155.7366766560209</v>
       </c>
       <c r="D59" t="n">
-        <v>2.255107067690401</v>
+        <v>2.53026051202509</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>10.45981617108639</v>
       </c>
       <c r="F59" t="n">
-        <v>6.059168731572305</v>
+        <v>28.43744348000778</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>53.11329760145347</v>
       </c>
       <c r="H59" t="n">
-        <v>2333.679675733538</v>
+        <v>1437.930842967288</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>28215305.96313352</v>
+      </c>
+      <c r="J59" t="n">
+        <v>81.55074108146125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C60" t="n">
-        <v>49.07536448234316</v>
+        <v>154.8857165652604</v>
       </c>
       <c r="D60" t="n">
-        <v>3.964590763403736</v>
+        <v>2.510725639125396</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>11.23965774855798</v>
       </c>
       <c r="F60" t="n">
-        <v>9.467900128966367</v>
+        <v>28.28114508400694</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>57.24801511722045</v>
       </c>
       <c r="H60" t="n">
-        <v>1672.689664356007</v>
+        <v>1436.59348130447</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>30424229.19764197</v>
+      </c>
+      <c r="J60" t="n">
+        <v>85.5291602012274</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C61" t="n">
-        <v>71.86894540364518</v>
+        <v>151.2884878573273</v>
       </c>
       <c r="D61" t="n">
-        <v>5.655432012934111</v>
+        <v>2.435007274769595</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>12.03535436389902</v>
       </c>
       <c r="F61" t="n">
-        <v>13.84127929472559</v>
+        <v>27.62152897828204</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>61.44798511633751</v>
       </c>
       <c r="H61" t="n">
-        <v>1418.291900072115</v>
+        <v>1430.737143798698</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>32666730.42048078</v>
+      </c>
+      <c r="J61" t="n">
+        <v>89.06951409461955</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="n">
-        <v>15</v>
+        <v>90.00000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>104.3616471327169</v>
+        <v>151.2884878573276</v>
       </c>
       <c r="D62" t="n">
-        <v>7.30778374309322</v>
+        <v>2.435007274769595</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>12.81028476697895</v>
       </c>
       <c r="F62" t="n">
-        <v>19.95434188278396</v>
+        <v>27.6215289782821</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>65.56400395937681</v>
       </c>
       <c r="H62" t="n">
-        <v>1317.217397564106</v>
+        <v>1430.7371437987</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>34866164.517584</v>
+      </c>
+      <c r="J62" t="n">
+        <v>93.18553293765891</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C63" t="n">
-        <v>138.3917493751866</v>
+        <v>151.2884878573269</v>
       </c>
       <c r="D63" t="n">
-        <v>8.911562602110436</v>
+        <v>2.435007274769598</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>13.58521517005888</v>
       </c>
       <c r="F63" t="n">
-        <v>26.33636490387125</v>
+        <v>27.62152897828199</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>69.68002670888561</v>
       </c>
       <c r="H63" t="n">
-        <v>1276.783946514262</v>
+        <v>1430.737143798697</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>37065600.9679821</v>
+      </c>
+      <c r="J63" t="n">
+        <v>97.30155568716759</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C64" t="n">
-        <v>173.2056791729819</v>
+        <v>151.2884878573267</v>
       </c>
       <c r="D64" t="n">
-        <v>10.53413442186075</v>
+        <v>2.4350072747696</v>
       </c>
       <c r="E64" t="n">
+        <v>14.3601455731388</v>
+      </c>
+      <c r="F64" t="n">
+        <v>27.62152897828193</v>
+      </c>
+      <c r="G64" t="n">
+        <v>73.7960514153182</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1430.737143798697</v>
+      </c>
+      <c r="I64" t="n">
+        <v>39265038.59724995</v>
+      </c>
+      <c r="J64" t="n">
+        <v>101.4175803936001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="n">
-        <v>32.86248375863446</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1002.70289759985</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="C65" t="n">
-        <v>208.3759711521932</v>
+        <v>47.3042903971773</v>
       </c>
       <c r="D65" t="n">
-        <v>13.4766769529258</v>
+        <v>0.9254558091464966</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>39.6639431198629</v>
+        <v>8.662845200955356</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1107.785002185637</v>
+        <v>2301.922558451345</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.662845200955356</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>290.7202691084</v>
+        <v>92.30693057238609</v>
       </c>
       <c r="D66" t="n">
-        <v>15.42704792751936</v>
+        <v>1.494852763176518</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.4960998745992546</v>
       </c>
       <c r="F66" t="n">
-        <v>54.79797610791509</v>
+        <v>16.85442394513774</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.047690242958929</v>
       </c>
       <c r="H66" t="n">
-        <v>1032.778606961148</v>
+        <v>1299.854352434957</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1054235.131445407</v>
+      </c>
+      <c r="J66" t="n">
+        <v>18.90211418809667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
-        <v>422.4527261030963</v>
+        <v>139.2162211135714</v>
       </c>
       <c r="D67" t="n">
-        <v>14.57912611375101</v>
+        <v>2.3040018999282</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.9935692514733454</v>
       </c>
       <c r="F67" t="n">
-        <v>78.3741508767575</v>
+        <v>25.42756010443136</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4.12682851944307</v>
       </c>
       <c r="H67" t="n">
-        <v>1197.601255759814</v>
+        <v>1079.894124245805</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2126919.860577749</v>
+      </c>
+      <c r="J67" t="n">
+        <v>29.55438862387443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n">
-        <v>44.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>554.3199352790566</v>
+        <v>141.4094044087961</v>
       </c>
       <c r="D68" t="n">
-        <v>18.81005911772393</v>
+        <v>3.420008986542388</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.736359790359558</v>
       </c>
       <c r="F68" t="n">
-        <v>102.787197809066</v>
+        <v>26.00089423143007</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>7.304095841606077</v>
       </c>
       <c r="H68" t="n">
-        <v>1251.339019434931</v>
+        <v>753.9261658105913</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>3772457.811680929</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33.30499007303615</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C69" t="n">
-        <v>591.3718891319312</v>
+        <v>141.4094044087958</v>
       </c>
       <c r="D69" t="n">
-        <v>21.20570163880485</v>
+        <v>5.286058246633379</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6112783853139818</v>
+        <v>2.491119033439487</v>
       </c>
       <c r="F69" t="n">
-        <v>109.8398523059564</v>
+        <v>26.29946211304459</v>
       </c>
       <c r="G69" t="n">
-        <v>2.519297063540691</v>
+        <v>10.69692894416597</v>
       </c>
       <c r="H69" t="n">
-        <v>1237.404788926787</v>
+        <v>638.5186076644687</v>
       </c>
       <c r="I69" t="n">
-        <v>1296704.838766447</v>
+        <v>5543528.628977277</v>
+      </c>
+      <c r="J69" t="n">
+        <v>36.99639105721056</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n">
-        <v>55.00000000000001</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>591.3718891319307</v>
+        <v>141.4094044087959</v>
       </c>
       <c r="D70" t="n">
-        <v>21.20570163880485</v>
+        <v>5.565080056872552</v>
       </c>
       <c r="E70" t="n">
-        <v>1.45920019908233</v>
+        <v>3.245878276519413</v>
       </c>
       <c r="F70" t="n">
-        <v>109.8398523059563</v>
+        <v>26.34410560268287</v>
       </c>
       <c r="G70" t="n">
-        <v>6.014166974238488</v>
+        <v>14.29378305078863</v>
       </c>
       <c r="H70" t="n">
-        <v>1068.435693674911</v>
+        <v>632.4280954875752</v>
       </c>
       <c r="I70" t="n">
-        <v>3095570.39445126</v>
+        <v>7437503.665588546</v>
+      </c>
+      <c r="J70" t="n">
+        <v>40.63788865347151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n">
-        <v>60.00000000000001</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
-        <v>599.0443396565014</v>
+        <v>141.409404408796</v>
       </c>
       <c r="D71" t="n">
-        <v>21.81190194237972</v>
+        <v>5.98406683559859</v>
       </c>
       <c r="E71" t="n">
-        <v>2.261431335136545</v>
+        <v>4.000637519599342</v>
       </c>
       <c r="F71" t="n">
-        <v>111.317885448951</v>
+        <v>26.41114348727906</v>
       </c>
       <c r="G71" t="n">
-        <v>9.327722285944084</v>
+        <v>18.04008211365273</v>
       </c>
       <c r="H71" t="n">
-        <v>866.4498225710788</v>
+        <v>694.6633435327739</v>
       </c>
       <c r="I71" t="n">
-        <v>4801724.990880817</v>
+        <v>9421505.784272965</v>
+      </c>
+      <c r="J71" t="n">
+        <v>44.45122560093179</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n">
-        <v>64.99999999999999</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>599.0443396565014</v>
+        <v>126.7403133129614</v>
       </c>
       <c r="D72" t="n">
-        <v>21.81190194237971</v>
+        <v>5.777327577439721</v>
       </c>
       <c r="E72" t="n">
-        <v>3.109353148904888</v>
+        <v>4.835509160787399</v>
       </c>
       <c r="F72" t="n">
-        <v>111.317885448951</v>
+        <v>23.7376288087234</v>
       </c>
       <c r="G72" t="n">
-        <v>12.83850461922824</v>
+        <v>22.2609228051457</v>
       </c>
       <c r="H72" t="n">
-        <v>761.5157078132357</v>
+        <v>784.8085390847925</v>
       </c>
       <c r="I72" t="n">
-        <v>6610176.3433044</v>
+        <v>11662420.06546582</v>
+      </c>
+      <c r="J72" t="n">
+        <v>45.99855161386911</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C73" t="n">
-        <v>599.0443396565016</v>
+        <v>92.30693057238618</v>
       </c>
       <c r="D73" t="n">
-        <v>21.81190194237971</v>
+        <v>5.101813509283623</v>
       </c>
       <c r="E73" t="n">
-        <v>3.957274962673233</v>
+        <v>5.779414576158749</v>
       </c>
       <c r="F73" t="n">
-        <v>111.317885448951</v>
+        <v>17.43153766451489</v>
       </c>
       <c r="G73" t="n">
-        <v>16.35017031323892</v>
+        <v>27.00776008676414</v>
       </c>
       <c r="H73" t="n">
-        <v>772.7807148455895</v>
+        <v>821.0421158988928</v>
       </c>
       <c r="I73" t="n">
-        <v>8419159.840743965</v>
+        <v>14180789.96449933</v>
+      </c>
+      <c r="J73" t="n">
+        <v>44.43929775127903</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="n">
-        <v>75</v>
+        <v>44.99999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>602.4226183818037</v>
+        <v>82.39295676078918</v>
       </c>
       <c r="D74" t="n">
-        <v>22.13505089058138</v>
+        <v>4.411122907747393</v>
       </c>
       <c r="E74" t="n">
-        <v>4.78507858291632</v>
+        <v>6.589306161744124</v>
       </c>
       <c r="F74" t="n">
-        <v>111.9776794512177</v>
+        <v>15.53651188218163</v>
       </c>
       <c r="G74" t="n">
-        <v>19.786485427779</v>
+        <v>31.22158797837229</v>
       </c>
       <c r="H74" t="n">
-        <v>620.7167702081437</v>
+        <v>1002.534641027234</v>
       </c>
       <c r="I74" t="n">
-        <v>10190023.05905374</v>
+        <v>16426508.60320832</v>
+      </c>
+      <c r="J74" t="n">
+        <v>46.75809986055393</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n">
-        <v>80.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="C75" t="n">
-        <v>602.4226183818039</v>
+        <v>62.17327264369747</v>
       </c>
       <c r="D75" t="n">
-        <v>22.13505089058138</v>
+        <v>3.884952430799277</v>
       </c>
       <c r="E75" t="n">
-        <v>5.633000396684666</v>
+        <v>7.457674546554836</v>
       </c>
       <c r="F75" t="n">
-        <v>111.9776794512177</v>
+        <v>11.81278146479343</v>
       </c>
       <c r="G75" t="n">
-        <v>23.35055576369921</v>
+        <v>35.68375005731939</v>
       </c>
       <c r="H75" t="n">
-        <v>576.6023996221662</v>
+        <v>1055.008503375722</v>
       </c>
       <c r="I75" t="n">
-        <v>12030575.61788458</v>
+        <v>18800689.95746174</v>
+      </c>
+      <c r="J75" t="n">
+        <v>47.49653152211282</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n">
-        <v>85</v>
+        <v>54.99999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>606.9076199900879</v>
+        <v>62.17327264369747</v>
       </c>
       <c r="D76" t="n">
-        <v>22.71886814868094</v>
+        <v>3.13019318771935</v>
       </c>
       <c r="E76" t="n">
-        <v>6.454213304038399</v>
+        <v>8.212433789634764</v>
       </c>
       <c r="F76" t="n">
-        <v>112.8783905020048</v>
+        <v>11.69201998590064</v>
       </c>
       <c r="G76" t="n">
-        <v>26.81901227446941</v>
+        <v>39.68905032229549</v>
       </c>
       <c r="H76" t="n">
-        <v>524.139301788902</v>
+        <v>1420.724194235008</v>
       </c>
       <c r="I76" t="n">
-        <v>13823183.30846167</v>
+        <v>20940716.89669557</v>
+      </c>
+      <c r="J76" t="n">
+        <v>51.38107030819614</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C77" t="n">
+        <v>62.17327264369806</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.384823214028073</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8.96719303271469</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11.57276079011014</v>
+      </c>
+      <c r="G77" t="n">
+        <v>43.69526080582437</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1850.6186154407</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23081292.16035877</v>
+      </c>
+      <c r="J77" t="n">
+        <v>55.26802159593451</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n">
+        <v>64.99999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>62.17327264369835</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.636514701559495</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9.721952275794619</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11.45303142811522</v>
+      </c>
+      <c r="G78" t="n">
+        <v>47.70251089065169</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2265.038417008484</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25222493.68986441</v>
+      </c>
+      <c r="J78" t="n">
+        <v>59.15554231876692</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C79" t="n">
+        <v>62.17327264369835</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9073874584795671</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10.47671151887455</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11.33637106922243</v>
+      </c>
+      <c r="G79" t="n">
+        <v>51.71024143978487</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2448.581319946737</v>
+      </c>
+      <c r="I79" t="n">
+        <v>27363984.65569888</v>
+      </c>
+      <c r="J79" t="n">
+        <v>63.0466125090073</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>75.00000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>62.17327264369658</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8844012980127864</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.23147076195448</v>
+      </c>
+      <c r="F80" t="n">
+        <v>11.33269328354743</v>
+      </c>
+      <c r="G80" t="n">
+        <v>55.70847290646411</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2467.278436364503</v>
+      </c>
+      <c r="I80" t="n">
+        <v>29499753.28270568</v>
+      </c>
+      <c r="J80" t="n">
+        <v>67.04116619001154</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62.17327264369776</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8844012980127882</v>
+      </c>
+      <c r="E81" t="n">
+        <v>11.9862300050344</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11.33269328354764</v>
+      </c>
+      <c r="G81" t="n">
+        <v>59.71055870568436</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2472.862664238206</v>
+      </c>
+      <c r="I81" t="n">
+        <v>31637843.79678537</v>
+      </c>
+      <c r="J81" t="n">
+        <v>71.043251989232</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="C82" t="n">
+        <v>62.17327264369717</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8844012980127829</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12.74098924811433</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11.33269328354753</v>
+      </c>
+      <c r="G82" t="n">
+        <v>63.71643591226691</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2472.862664238209</v>
+      </c>
+      <c r="I82" t="n">
+        <v>33778218.2912038</v>
+      </c>
+      <c r="J82" t="n">
+        <v>75.04912919581444</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="C77" t="n">
-        <v>606.9076199900882</v>
-      </c>
-      <c r="D77" t="n">
-        <v>22.71886814868094</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7.302135117806746</v>
-      </c>
-      <c r="F77" t="n">
-        <v>112.8783905020048</v>
-      </c>
-      <c r="G77" t="n">
-        <v>30.42945439401998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>485.500087539832</v>
-      </c>
-      <c r="I77" t="n">
-        <v>15691670.6767084</v>
+      <c r="C83" t="n">
+        <v>62.17327264369658</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8844012980127864</v>
+      </c>
+      <c r="E83" t="n">
+        <v>13.49574849119426</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11.33269328354743</v>
+      </c>
+      <c r="G83" t="n">
+        <v>67.72442499312699</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2472.862664238169</v>
+      </c>
+      <c r="I83" t="n">
+        <v>35919864.99904243</v>
+      </c>
+      <c r="J83" t="n">
+        <v>79.05711827667442</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C84" t="n">
+        <v>62.17327264369835</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8844012980127864</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14.25050773427419</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11.33269328354775</v>
+      </c>
+      <c r="G84" t="n">
+        <v>71.73311486839069</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2472.862664238239</v>
+      </c>
+      <c r="I84" t="n">
+        <v>38061933.87218445</v>
+      </c>
+      <c r="J84" t="n">
+        <v>83.06580815193844</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62.17327264369774</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8844012980127882</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15.00526697735411</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11.33269328354764</v>
+      </c>
+      <c r="G85" t="n">
+        <v>75.74200019421838</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2472.862664238205</v>
+      </c>
+      <c r="I85" t="n">
+        <v>40204120.48663006</v>
+      </c>
+      <c r="J85" t="n">
+        <v>87.07469347776602</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>44.79134173843811</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.048134651287172</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8.230143057124808</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1843.624389867026</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>8.230143057124808</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>56.2219351612181</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.095728213773274</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6781075350965581</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10.45526484322298</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.823445637020197</v>
+      </c>
+      <c r="H87" t="n">
+        <v>593.6254662433661</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1455771.756603772</v>
+      </c>
+      <c r="J87" t="n">
+        <v>13.27871048024318</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>56.24959574869921</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.454871678763263</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.481987455389252</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.51770670336798</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6.252983587891537</v>
+      </c>
+      <c r="H88" t="n">
+        <v>387.8598351342811</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3231199.466661437</v>
+      </c>
+      <c r="J88" t="n">
+        <v>16.77069029125952</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C89" t="n">
+        <v>56.24959574869941</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.719894494939807</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.286169557053079</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10.72011035395626</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.822562052749392</v>
+      </c>
+      <c r="H89" t="n">
+        <v>344.3103281986286</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5090879.709950329</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20.54267240670566</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C90" t="n">
+        <v>56.24959574869936</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.586485526048016</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.090351658716908</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10.85876491893357</v>
+      </c>
+      <c r="G90" t="n">
+        <v>13.58417758271248</v>
+      </c>
+      <c r="H90" t="n">
+        <v>314.4366116248281</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7066244.932218273</v>
+      </c>
+      <c r="J90" t="n">
+        <v>24.44294250164604</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="n">
+        <v>56.24959574869936</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4.817791685546154</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.894533760380735</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10.89577390445327</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17.52700584221093</v>
+      </c>
+      <c r="H91" t="n">
+        <v>331.6132981720622</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9150774.449387038</v>
+      </c>
+      <c r="J91" t="n">
+        <v>28.4227797466642</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C92" t="n">
+        <v>56.24959574869946</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.886547437513673</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.698715862044562</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10.90677482476809</v>
+      </c>
+      <c r="G92" t="n">
+        <v>21.58269342110291</v>
+      </c>
+      <c r="H92" t="n">
+        <v>381.7640766968147</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11303291.50835914</v>
+      </c>
+      <c r="J92" t="n">
+        <v>32.489468245871</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C93" t="n">
+        <v>56.24959574869969</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.8345420882845</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.502897963708387</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10.89845396889146</v>
+      </c>
+      <c r="G93" t="n">
+        <v>25.73180483241957</v>
+      </c>
+      <c r="H93" t="n">
+        <v>486.1620935942753</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13512087.98445454</v>
+      </c>
+      <c r="J93" t="n">
+        <v>36.63025880131104</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C94" t="n">
+        <v>56.2495957486998</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.549767986620672</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.307080065372214</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10.85289011262527</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29.94021581127658</v>
+      </c>
+      <c r="H94" t="n">
+        <v>634.9709749497428</v>
+      </c>
+      <c r="I94" t="n">
+        <v>15756607.09159835</v>
+      </c>
+      <c r="J94" t="n">
+        <v>40.79310592390186</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C95" t="n">
+        <v>56.24959574869913</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.070069827410379</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.111262167036048</v>
+      </c>
+      <c r="F95" t="n">
+        <v>10.7761384071515</v>
+      </c>
+      <c r="G95" t="n">
+        <v>34.17634835239271</v>
+      </c>
+      <c r="H95" t="n">
+        <v>804.9425490173188</v>
+      </c>
+      <c r="I95" t="n">
+        <v>18017825.93504282</v>
+      </c>
+      <c r="J95" t="n">
+        <v>44.95248675954421</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n">
+        <v>49.99999999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>56.24959574869946</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.532955783293019</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.91544426869987</v>
+      </c>
+      <c r="F96" t="n">
+        <v>10.69020016009279</v>
+      </c>
+      <c r="G96" t="n">
+        <v>38.43060215610146</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1059.882370671719</v>
+      </c>
+      <c r="I96" t="n">
+        <v>20289961.20173587</v>
+      </c>
+      <c r="J96" t="n">
+        <v>49.12080231619424</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>56.24959574869946</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.93617551064033</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8.719626370363699</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10.59471531646835</v>
+      </c>
+      <c r="G97" t="n">
+        <v>42.69504545559759</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1370.09424250569</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22568234.71890324</v>
+      </c>
+      <c r="J97" t="n">
+        <v>53.28976077206595</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n">
+        <v>60.00000000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>56.24959574869946</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.15091075130281</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.523808472027525</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.46907295497435</v>
+      </c>
+      <c r="G98" t="n">
+        <v>46.96426082953586</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1677.013235601197</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24849382.97971045</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57.43333378451021</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="C99" t="n">
+        <v>56.24959574869992</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.138838632676404</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10.32799057369135</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10.46714141599421</v>
+      </c>
+      <c r="G99" t="n">
+        <v>51.22409771913238</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1789.545127047143</v>
+      </c>
+      <c r="I99" t="n">
+        <v>27124881.55115517</v>
+      </c>
+      <c r="J99" t="n">
+        <v>61.69123913512659</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="C100" t="n">
+        <v>56.22193516121786</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.095728213773274</v>
+      </c>
+      <c r="E100" t="n">
+        <v>11.13247485672631</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10.45526484322294</v>
+      </c>
+      <c r="G100" t="n">
+        <v>55.49047704995372</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1862.332165438082</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29404212.13007104</v>
+      </c>
+      <c r="J100" t="n">
+        <v>65.94574189317666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C101" t="n">
+        <v>56.22193516121786</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.095728213773272</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.93665695839014</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10.45526484322294</v>
+      </c>
+      <c r="G101" t="n">
+        <v>59.75855045646499</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1877.615238161957</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31684672.45869331</v>
+      </c>
+      <c r="J101" t="n">
+        <v>70.21381529968792</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="C102" t="n">
+        <v>56.22193516121831</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.09572821377327</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12.74083906005397</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10.45526484322302</v>
+      </c>
+      <c r="G102" t="n">
+        <v>64.02830116093611</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1877.615238161963</v>
+      </c>
+      <c r="I102" t="n">
+        <v>33966143.20777333</v>
+      </c>
+      <c r="J102" t="n">
+        <v>74.48356600415913</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>85.00000000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>56.22193516121831</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.09572821377327</v>
+      </c>
+      <c r="E103" t="n">
+        <v>13.54502116171779</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10.45526484322302</v>
+      </c>
+      <c r="G103" t="n">
+        <v>68.29919752624357</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1877.615238161963</v>
+      </c>
+      <c r="I103" t="n">
+        <v>36248304.11398368</v>
+      </c>
+      <c r="J103" t="n">
+        <v>78.75446236946659</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C104" t="n">
+        <v>56.22193516121831</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.095728213773269</v>
+      </c>
+      <c r="E104" t="n">
+        <v>14.34920326338162</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10.45526484322302</v>
+      </c>
+      <c r="G104" t="n">
+        <v>72.57053546472875</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1877.615238161956</v>
+      </c>
+      <c r="I104" t="n">
+        <v>38530731.02813239</v>
+      </c>
+      <c r="J104" t="n">
+        <v>83.02580030795177</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C105" t="n">
+        <v>56.22193516121718</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.095728213773283</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15.15338536504546</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10.45526484322282</v>
+      </c>
+      <c r="G105" t="n">
+        <v>76.84192562881528</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1877.615238161973</v>
+      </c>
+      <c r="I105" t="n">
+        <v>40813189.40348675</v>
+      </c>
+      <c r="J105" t="n">
+        <v>87.2971904720381</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>56.22193516121654</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.095728213773283</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15.95756746670929</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.4552648432227</v>
+      </c>
+      <c r="G106" t="n">
+        <v>81.11332042233289</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1877.615238161952</v>
+      </c>
+      <c r="I106" t="n">
+        <v>43095650.567655</v>
+      </c>
+      <c r="J106" t="n">
+        <v>91.5685852655556</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A59:A77"/>
-    <mergeCell ref="A21:A39"/>
-    <mergeCell ref="A40:A58"/>
+  <mergeCells count="5">
+    <mergeCell ref="A44:A64"/>
+    <mergeCell ref="A65:A85"/>
+    <mergeCell ref="A86:A106"/>
+    <mergeCell ref="A23:A43"/>
+    <mergeCell ref="A2:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
